--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_79.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_79.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,310 +488,324 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3538461538461539</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:01:42.174263', '0:01:55.003287')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(124.92, 128.84)]</t>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:00.560000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.680000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[('0:02:08.760000', '0:02:14')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -794,409 +813,373 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1458885941644562</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[['A:min', 'E', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[('0:00:15.436031', '0:00:21.241020')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:10.664331', '0:00:20.660521')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[('0:00:10.120000', '0:00:35.880000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:36.040000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.56, 69.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.7, 62.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
